--- a/examples/mean_variance/data.xlsx
+++ b/examples/mean_variance/data.xlsx
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.667</v>
       </c>
       <c r="F3" t="n">
-        <v>1.333333333333333</v>
+        <v>1.333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4330127018922193</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.333333333333333</v>
+        <v>3.333</v>
       </c>
       <c r="F4" t="n">
-        <v>2.333333333333333</v>
+        <v>2.333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.458257569495584</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="5">
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.666666666666666</v>
+        <v>4.667</v>
       </c>
       <c r="F6" t="n">
-        <v>6.333333333333334</v>
+        <v>6.333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5392738882336251</v>
+        <v>0.539</v>
       </c>
     </row>
   </sheetData>

--- a/examples/mean_variance/data.xlsx
+++ b/examples/mean_variance/data.xlsx
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2.667</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>1.333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.433</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>2.333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>0.458</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="5">
@@ -571,13 +571,13 @@
         <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>4.667</v>
+        <v>4.666666666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>6.333</v>
+        <v>6.333333333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.539</v>
+        <v>0.5392738882336251</v>
       </c>
     </row>
   </sheetData>
